--- a/Codes.xlsx
+++ b/Codes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ahmedal-saber/Desktop/Balqees is Great/Analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6D0795C-56EA-7D4F-BF9E-47935A795579}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{659C6B4F-9510-084F-8FB6-EA71050CF597}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5960" yWindow="2320" windowWidth="27640" windowHeight="16940" xr2:uid="{9B2FB954-4A03-9245-BB96-2A1C35576455}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="312">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="313">
   <si>
     <t>id</t>
   </si>
@@ -964,6 +964,9 @@
   </si>
   <si>
     <t>C</t>
+  </si>
+  <si>
+    <t>None</t>
   </si>
 </sst>
 </file>
@@ -1041,7 +1044,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -1077,11 +1080,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1130,6 +1144,9 @@
     </xf>
     <xf numFmtId="2" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1458,10 +1475,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12985FB6-ECB3-4045-942C-18075966E513}">
-  <dimension ref="A1:F148"/>
+  <dimension ref="A1:G148"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="G3" sqref="G3:G148"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1474,7 +1491,7 @@
     <col min="6" max="6" width="8.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="17">
+    <row r="1" spans="1:7" ht="17">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1493,8 +1510,11 @@
       <c r="F1" s="6" t="s">
         <v>311</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="40">
+      <c r="G1" s="17" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="40">
       <c r="A2" t="s">
         <v>162</v>
       </c>
@@ -1513,8 +1533,11 @@
       <c r="F2" s="9">
         <v>104</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" ht="20">
+      <c r="G2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="20">
       <c r="A3" t="s">
         <v>163</v>
       </c>
@@ -1533,8 +1556,11 @@
       <c r="F3" s="9">
         <v>120</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" ht="20">
+      <c r="G3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="20">
       <c r="A4" t="s">
         <v>164</v>
       </c>
@@ -1553,8 +1579,11 @@
       <c r="F4" s="9">
         <v>90</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" ht="20">
+      <c r="G4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="20">
       <c r="A5" t="s">
         <v>165</v>
       </c>
@@ -1573,8 +1602,11 @@
       <c r="F5" s="9">
         <v>139</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" ht="20">
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="20">
       <c r="A6" t="s">
         <v>166</v>
       </c>
@@ -1593,8 +1625,11 @@
       <c r="F6" s="9">
         <v>69</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" ht="20">
+      <c r="G6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="20">
       <c r="A7" t="s">
         <v>167</v>
       </c>
@@ -1613,8 +1648,11 @@
       <c r="F7" s="9">
         <v>103</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" ht="20">
+      <c r="G7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="20">
       <c r="A8" t="s">
         <v>168</v>
       </c>
@@ -1633,8 +1671,11 @@
       <c r="F8" s="9">
         <v>14</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" ht="20">
+      <c r="G8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="20">
       <c r="A9" t="s">
         <v>169</v>
       </c>
@@ -1653,8 +1694,11 @@
       <c r="F9" s="9">
         <v>50</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" ht="20">
+      <c r="G9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="20">
       <c r="A10" t="s">
         <v>170</v>
       </c>
@@ -1673,8 +1717,11 @@
       <c r="F10" s="9">
         <v>100</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" ht="20">
+      <c r="G10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="20">
       <c r="A11" t="s">
         <v>171</v>
       </c>
@@ -1693,8 +1740,11 @@
       <c r="F11" s="9">
         <v>79</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" ht="20">
+      <c r="G11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="20">
       <c r="A12" t="s">
         <v>172</v>
       </c>
@@ -1713,8 +1763,11 @@
       <c r="F12" s="9">
         <v>69</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" ht="20">
+      <c r="G12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="20">
       <c r="A13" t="s">
         <v>173</v>
       </c>
@@ -1733,8 +1786,11 @@
       <c r="F13" s="9">
         <v>40</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" ht="20">
+      <c r="G13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="20">
       <c r="A14" t="s">
         <v>174</v>
       </c>
@@ -1753,8 +1809,11 @@
       <c r="F14" s="9">
         <v>85</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" ht="20">
+      <c r="G14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="20">
       <c r="A15" t="s">
         <v>175</v>
       </c>
@@ -1773,8 +1832,11 @@
       <c r="F15" s="9">
         <v>28</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" ht="20">
+      <c r="G15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="20">
       <c r="A16" t="s">
         <v>176</v>
       </c>
@@ -1793,8 +1855,11 @@
       <c r="F16" s="9">
         <v>87</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" ht="20">
+      <c r="G16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="20">
       <c r="A17" t="s">
         <v>177</v>
       </c>
@@ -1813,8 +1878,11 @@
       <c r="F17" s="9">
         <v>90</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" ht="20">
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="20">
       <c r="A18" t="s">
         <v>178</v>
       </c>
@@ -1833,8 +1901,11 @@
       <c r="F18" s="9">
         <v>67</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" ht="20">
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="20">
       <c r="A19" t="s">
         <v>179</v>
       </c>
@@ -1853,8 +1924,11 @@
       <c r="F19" s="9">
         <v>42</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" ht="20">
+      <c r="G19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="20">
       <c r="A20" t="s">
         <v>180</v>
       </c>
@@ -1873,8 +1947,11 @@
       <c r="F20" s="9">
         <v>169</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" ht="20">
+      <c r="G20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="20">
       <c r="A21" t="s">
         <v>181</v>
       </c>
@@ -1893,8 +1970,11 @@
       <c r="F21" s="9">
         <v>205</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" ht="20">
+      <c r="G21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="20">
       <c r="A22" t="s">
         <v>182</v>
       </c>
@@ -1913,8 +1993,11 @@
       <c r="F22" s="9">
         <v>136</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" ht="20">
+      <c r="G22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="20">
       <c r="A23" t="s">
         <v>183</v>
       </c>
@@ -1933,8 +2016,11 @@
       <c r="F23" s="9">
         <v>56</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" ht="20">
+      <c r="G23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="20">
       <c r="A24" t="s">
         <v>184</v>
       </c>
@@ -1953,8 +2039,11 @@
       <c r="F24" s="9">
         <v>102</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" ht="20">
+      <c r="G24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="20">
       <c r="A25" t="s">
         <v>185</v>
       </c>
@@ -1973,8 +2062,11 @@
       <c r="F25" s="9">
         <v>243</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" ht="20">
+      <c r="G25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="20">
       <c r="A26" t="s">
         <v>186</v>
       </c>
@@ -1993,8 +2085,11 @@
       <c r="F26" s="9">
         <v>188</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" ht="20">
+      <c r="G26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="20">
       <c r="A27" t="s">
         <v>187</v>
       </c>
@@ -2013,8 +2108,11 @@
       <c r="F27" s="9">
         <v>196</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" ht="20">
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="20">
       <c r="A28" t="s">
         <v>188</v>
       </c>
@@ -2033,8 +2131,11 @@
       <c r="F28" s="9">
         <v>196</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" ht="20">
+      <c r="G28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="20">
       <c r="A29" t="s">
         <v>189</v>
       </c>
@@ -2053,8 +2154,11 @@
       <c r="F29" s="9">
         <v>227</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" ht="20">
+      <c r="G29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="20">
       <c r="A30" t="s">
         <v>190</v>
       </c>
@@ -2073,8 +2177,11 @@
       <c r="F30" s="9">
         <v>119</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" ht="20">
+      <c r="G30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="20">
       <c r="A31" t="s">
         <v>191</v>
       </c>
@@ -2093,8 +2200,11 @@
       <c r="F31" s="9">
         <v>173</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" ht="20">
+      <c r="G31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="20">
       <c r="A32" t="s">
         <v>192</v>
       </c>
@@ -2113,8 +2223,11 @@
       <c r="F32" s="9">
         <v>262</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" ht="20">
+      <c r="G32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="20">
       <c r="A33" t="s">
         <v>193</v>
       </c>
@@ -2133,8 +2246,11 @@
       <c r="F33" s="9">
         <v>102</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" ht="20">
+      <c r="G33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="20">
       <c r="A34" t="s">
         <v>194</v>
       </c>
@@ -2153,8 +2269,11 @@
       <c r="F34" s="9">
         <v>196</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" ht="20">
+      <c r="G34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="20">
       <c r="A35" t="s">
         <v>195</v>
       </c>
@@ -2173,8 +2292,11 @@
       <c r="F35" s="9">
         <v>137</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" ht="20">
+      <c r="G35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="20">
       <c r="A36" t="s">
         <v>196</v>
       </c>
@@ -2193,8 +2315,11 @@
       <c r="F36" s="9">
         <v>84</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" ht="20">
+      <c r="G36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="20">
       <c r="A37" t="s">
         <v>197</v>
       </c>
@@ -2213,8 +2338,11 @@
       <c r="F37" s="9">
         <v>84</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" ht="20">
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="20">
       <c r="A38" t="s">
         <v>198</v>
       </c>
@@ -2233,8 +2361,11 @@
       <c r="F38" s="9">
         <v>130</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" ht="20">
+      <c r="G38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="20">
       <c r="A39" t="s">
         <v>199</v>
       </c>
@@ -2253,8 +2384,11 @@
       <c r="F39" s="9">
         <v>140</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" ht="20">
+      <c r="G39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="20">
       <c r="A40" t="s">
         <v>200</v>
       </c>
@@ -2273,8 +2407,11 @@
       <c r="F40" s="9">
         <v>140</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" ht="20">
+      <c r="G40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="20">
       <c r="A41" t="s">
         <v>201</v>
       </c>
@@ -2293,8 +2430,11 @@
       <c r="F41" s="9">
         <v>112</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" ht="20">
+      <c r="G41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="20">
       <c r="A42" t="s">
         <v>202</v>
       </c>
@@ -2313,8 +2453,11 @@
       <c r="F42" s="9">
         <v>112</v>
       </c>
-    </row>
-    <row r="43" spans="1:6" ht="20">
+      <c r="G42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="20">
       <c r="A43" t="s">
         <v>203</v>
       </c>
@@ -2333,8 +2476,11 @@
       <c r="F43" s="9">
         <v>131</v>
       </c>
-    </row>
-    <row r="44" spans="1:6" ht="20">
+      <c r="G43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="20">
       <c r="A44" t="s">
         <v>204</v>
       </c>
@@ -2353,8 +2499,11 @@
       <c r="F44" s="9">
         <v>150</v>
       </c>
-    </row>
-    <row r="45" spans="1:6" ht="20">
+      <c r="G44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="20">
       <c r="A45" t="s">
         <v>205</v>
       </c>
@@ -2373,8 +2522,11 @@
       <c r="F45" s="9">
         <v>40</v>
       </c>
-    </row>
-    <row r="46" spans="1:6" ht="20">
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="20">
       <c r="A46" t="s">
         <v>206</v>
       </c>
@@ -2393,8 +2545,11 @@
       <c r="F46" s="9">
         <v>52</v>
       </c>
-    </row>
-    <row r="47" spans="1:6" ht="20">
+      <c r="G46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="20">
       <c r="A47" t="s">
         <v>207</v>
       </c>
@@ -2413,8 +2568,11 @@
       <c r="F47" s="9">
         <v>50</v>
       </c>
-    </row>
-    <row r="48" spans="1:6" ht="20">
+      <c r="G47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="20">
       <c r="A48" t="s">
         <v>208</v>
       </c>
@@ -2433,8 +2591,11 @@
       <c r="F48" s="9">
         <v>60</v>
       </c>
-    </row>
-    <row r="49" spans="1:6" ht="20">
+      <c r="G48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="20">
       <c r="A49" t="s">
         <v>209</v>
       </c>
@@ -2453,8 +2614,11 @@
       <c r="F49" s="9">
         <v>100</v>
       </c>
-    </row>
-    <row r="50" spans="1:6" ht="20">
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="20">
       <c r="A50" t="s">
         <v>210</v>
       </c>
@@ -2473,8 +2637,11 @@
       <c r="F50" s="9">
         <v>224</v>
       </c>
-    </row>
-    <row r="51" spans="1:6" ht="20">
+      <c r="G50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" ht="20">
       <c r="A51" t="s">
         <v>211</v>
       </c>
@@ -2493,8 +2660,11 @@
       <c r="F51" s="9">
         <v>224</v>
       </c>
-    </row>
-    <row r="52" spans="1:6" ht="20">
+      <c r="G51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" ht="20">
       <c r="A52" t="s">
         <v>212</v>
       </c>
@@ -2513,8 +2683,11 @@
       <c r="F52" s="9">
         <v>265</v>
       </c>
-    </row>
-    <row r="53" spans="1:6" ht="20">
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" ht="20">
       <c r="A53" t="s">
         <v>213</v>
       </c>
@@ -2533,8 +2706,11 @@
       <c r="F53" s="9">
         <v>202</v>
       </c>
-    </row>
-    <row r="54" spans="1:6" ht="20">
+      <c r="G53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" ht="20">
       <c r="A54" t="s">
         <v>214</v>
       </c>
@@ -2553,8 +2729,11 @@
       <c r="F54" s="9">
         <v>266</v>
       </c>
-    </row>
-    <row r="55" spans="1:6" ht="20">
+      <c r="G54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" ht="20">
       <c r="A55" t="s">
         <v>215</v>
       </c>
@@ -2573,8 +2752,11 @@
       <c r="F55" s="9">
         <v>373</v>
       </c>
-    </row>
-    <row r="56" spans="1:6" ht="20">
+      <c r="G55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" ht="20">
       <c r="A56" t="s">
         <v>216</v>
       </c>
@@ -2593,8 +2775,11 @@
       <c r="F56" s="9">
         <v>400</v>
       </c>
-    </row>
-    <row r="57" spans="1:6" ht="20">
+      <c r="G56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" ht="20">
       <c r="A57" t="s">
         <v>217</v>
       </c>
@@ -2613,8 +2798,11 @@
       <c r="F57" s="9">
         <v>133</v>
       </c>
-    </row>
-    <row r="58" spans="1:6" ht="20">
+      <c r="G57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" ht="20">
       <c r="A58" t="s">
         <v>218</v>
       </c>
@@ -2633,8 +2821,11 @@
       <c r="F58" s="9">
         <v>337</v>
       </c>
-    </row>
-    <row r="59" spans="1:6" ht="20">
+      <c r="G58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" ht="20">
       <c r="A59" t="s">
         <v>219</v>
       </c>
@@ -2653,8 +2844,11 @@
       <c r="F59" s="9">
         <v>412</v>
       </c>
-    </row>
-    <row r="60" spans="1:6" ht="20">
+      <c r="G59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" ht="20">
       <c r="A60" t="s">
         <v>220</v>
       </c>
@@ -2673,8 +2867,11 @@
       <c r="F60" s="9">
         <v>408</v>
       </c>
-    </row>
-    <row r="61" spans="1:6" ht="20">
+      <c r="G60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" ht="20">
       <c r="A61" t="s">
         <v>221</v>
       </c>
@@ -2693,8 +2890,11 @@
       <c r="F61" s="9">
         <v>557</v>
       </c>
-    </row>
-    <row r="62" spans="1:6" ht="20">
+      <c r="G61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" ht="20">
       <c r="A62" t="s">
         <v>222</v>
       </c>
@@ -2713,8 +2913,11 @@
       <c r="F62" s="9">
         <v>414</v>
       </c>
-    </row>
-    <row r="63" spans="1:6" ht="20">
+      <c r="G62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" ht="20">
       <c r="A63" t="s">
         <v>223</v>
       </c>
@@ -2733,8 +2936,11 @@
       <c r="F63" s="9">
         <v>340</v>
       </c>
-    </row>
-    <row r="64" spans="1:6" ht="20">
+      <c r="G63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" ht="20">
       <c r="A64" t="s">
         <v>224</v>
       </c>
@@ -2753,8 +2959,11 @@
       <c r="F64" s="9">
         <v>332</v>
       </c>
-    </row>
-    <row r="65" spans="1:6" ht="20">
+      <c r="G64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" ht="20">
       <c r="A65" t="s">
         <v>225</v>
       </c>
@@ -2773,8 +2982,11 @@
       <c r="F65" s="9">
         <v>312</v>
       </c>
-    </row>
-    <row r="66" spans="1:6" ht="20">
+      <c r="G65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" ht="20">
       <c r="A66" t="s">
         <v>226</v>
       </c>
@@ -2793,8 +3005,11 @@
       <c r="F66" s="9">
         <v>290</v>
       </c>
-    </row>
-    <row r="67" spans="1:6" ht="20">
+      <c r="G66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" ht="20">
       <c r="A67" t="s">
         <v>227</v>
       </c>
@@ -2813,8 +3028,11 @@
       <c r="F67" s="9">
         <v>350</v>
       </c>
-    </row>
-    <row r="68" spans="1:6" ht="20">
+      <c r="G67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" ht="20">
       <c r="A68" t="s">
         <v>228</v>
       </c>
@@ -2833,8 +3051,11 @@
       <c r="F68" s="9">
         <v>464</v>
       </c>
-    </row>
-    <row r="69" spans="1:6" ht="20">
+      <c r="G68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" ht="20">
       <c r="A69" t="s">
         <v>229</v>
       </c>
@@ -2853,8 +3074,11 @@
       <c r="F69" s="9">
         <v>480</v>
       </c>
-    </row>
-    <row r="70" spans="1:6" ht="20">
+      <c r="G69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" ht="20">
       <c r="A70" t="s">
         <v>230</v>
       </c>
@@ -2873,8 +3097,11 @@
       <c r="F70" s="9">
         <v>284</v>
       </c>
-    </row>
-    <row r="71" spans="1:6" ht="20">
+      <c r="G70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" ht="20">
       <c r="A71" t="s">
         <v>231</v>
       </c>
@@ -2893,8 +3120,11 @@
       <c r="F71" s="9">
         <v>124</v>
       </c>
-    </row>
-    <row r="72" spans="1:6" ht="20">
+      <c r="G71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" ht="20">
       <c r="A72" t="s">
         <v>232</v>
       </c>
@@ -2913,8 +3143,11 @@
       <c r="F72" s="9">
         <v>260</v>
       </c>
-    </row>
-    <row r="73" spans="1:6" ht="20">
+      <c r="G72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" ht="20">
       <c r="A73" t="s">
         <v>233</v>
       </c>
@@ -2933,8 +3166,11 @@
       <c r="F73" s="9">
         <v>260</v>
       </c>
-    </row>
-    <row r="74" spans="1:6" ht="20">
+      <c r="G73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" ht="20">
       <c r="A74" t="s">
         <v>234</v>
       </c>
@@ -2953,8 +3189,11 @@
       <c r="F74" s="9">
         <v>246</v>
       </c>
-    </row>
-    <row r="75" spans="1:6" ht="20">
+      <c r="G74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" ht="20">
       <c r="A75" t="s">
         <v>235</v>
       </c>
@@ -2973,8 +3212,11 @@
       <c r="F75" s="9">
         <v>250</v>
       </c>
-    </row>
-    <row r="76" spans="1:6" ht="20">
+      <c r="G75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" ht="20">
       <c r="A76" t="s">
         <v>236</v>
       </c>
@@ -2993,8 +3235,11 @@
       <c r="F76" s="9">
         <v>144</v>
       </c>
-    </row>
-    <row r="77" spans="1:6" ht="20">
+      <c r="G76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" ht="20">
       <c r="A77" t="s">
         <v>237</v>
       </c>
@@ -3013,8 +3258,11 @@
       <c r="F77" s="9">
         <v>90</v>
       </c>
-    </row>
-    <row r="78" spans="1:6" ht="20">
+      <c r="G77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" ht="20">
       <c r="A78" t="s">
         <v>238</v>
       </c>
@@ -3033,8 +3281,11 @@
       <c r="F78" s="9">
         <v>90</v>
       </c>
-    </row>
-    <row r="79" spans="1:6" ht="20">
+      <c r="G78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" ht="20">
       <c r="A79" t="s">
         <v>239</v>
       </c>
@@ -3053,8 +3304,11 @@
       <c r="F79" s="9">
         <v>145</v>
       </c>
-    </row>
-    <row r="80" spans="1:6" ht="20">
+      <c r="G79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" ht="20">
       <c r="A80" t="s">
         <v>240</v>
       </c>
@@ -3073,8 +3327,11 @@
       <c r="F80" s="9">
         <v>170</v>
       </c>
-    </row>
-    <row r="81" spans="1:6" ht="20">
+      <c r="G80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" ht="20">
       <c r="A81" t="s">
         <v>241</v>
       </c>
@@ -3093,8 +3350,11 @@
       <c r="F81" s="9">
         <v>276</v>
       </c>
-    </row>
-    <row r="82" spans="1:6" ht="20">
+      <c r="G81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" ht="20">
       <c r="A82" t="s">
         <v>242</v>
       </c>
@@ -3113,8 +3373,11 @@
       <c r="F82" s="9">
         <v>244</v>
       </c>
-    </row>
-    <row r="83" spans="1:6" ht="20">
+      <c r="G82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" ht="20">
       <c r="A83" t="s">
         <v>243</v>
       </c>
@@ -3133,8 +3396,11 @@
       <c r="F83" s="9">
         <v>111</v>
       </c>
-    </row>
-    <row r="84" spans="1:6" ht="20">
+      <c r="G83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" ht="20">
       <c r="A84" t="s">
         <v>244</v>
       </c>
@@ -3153,8 +3419,11 @@
       <c r="F84" s="9">
         <v>111</v>
       </c>
-    </row>
-    <row r="85" spans="1:6" ht="20">
+      <c r="G84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" ht="20">
       <c r="A85" t="s">
         <v>245</v>
       </c>
@@ -3173,8 +3442,11 @@
       <c r="F85" s="9">
         <v>111</v>
       </c>
-    </row>
-    <row r="86" spans="1:6" ht="20">
+      <c r="G85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" ht="20">
       <c r="A86" t="s">
         <v>246</v>
       </c>
@@ -3193,8 +3465,11 @@
       <c r="F86" s="9">
         <v>99</v>
       </c>
-    </row>
-    <row r="87" spans="1:6" ht="20">
+      <c r="G86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" ht="20">
       <c r="A87" t="s">
         <v>247</v>
       </c>
@@ -3213,8 +3488,11 @@
       <c r="F87" s="9">
         <v>210</v>
       </c>
-    </row>
-    <row r="88" spans="1:6" ht="20">
+      <c r="G87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" ht="20">
       <c r="A88" t="s">
         <v>248</v>
       </c>
@@ -3233,8 +3511,11 @@
       <c r="F88" s="9">
         <v>218</v>
       </c>
-    </row>
-    <row r="89" spans="1:6" ht="20">
+      <c r="G88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" ht="20">
       <c r="A89" t="s">
         <v>249</v>
       </c>
@@ -3253,8 +3534,11 @@
       <c r="F89" s="9">
         <v>159</v>
       </c>
-    </row>
-    <row r="90" spans="1:6" ht="20">
+      <c r="G89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" ht="20">
       <c r="A90" t="s">
         <v>250</v>
       </c>
@@ -3273,8 +3557,11 @@
       <c r="F90" s="13">
         <v>166</v>
       </c>
-    </row>
-    <row r="91" spans="1:6" ht="20">
+      <c r="G90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" ht="20">
       <c r="A91" t="s">
         <v>251</v>
       </c>
@@ -3293,8 +3580,11 @@
       <c r="F91" s="9">
         <v>90</v>
       </c>
-    </row>
-    <row r="92" spans="1:6" ht="20">
+      <c r="G91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" ht="20">
       <c r="A92" t="s">
         <v>252</v>
       </c>
@@ -3313,8 +3603,11 @@
       <c r="F92" s="9">
         <v>177</v>
       </c>
-    </row>
-    <row r="93" spans="1:6" ht="20">
+      <c r="G92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" ht="20">
       <c r="A93" t="s">
         <v>253</v>
       </c>
@@ -3333,8 +3626,11 @@
       <c r="F93" s="9">
         <v>148</v>
       </c>
-    </row>
-    <row r="94" spans="1:6" ht="20">
+      <c r="G93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" ht="20">
       <c r="A94" t="s">
         <v>254</v>
       </c>
@@ -3353,8 +3649,11 @@
       <c r="F94" s="9">
         <v>177</v>
       </c>
-    </row>
-    <row r="95" spans="1:6" ht="20">
+      <c r="G94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" ht="20">
       <c r="A95" t="s">
         <v>255</v>
       </c>
@@ -3373,8 +3672,11 @@
       <c r="F95" s="9">
         <v>300</v>
       </c>
-    </row>
-    <row r="96" spans="1:6" ht="20">
+      <c r="G95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" ht="20">
       <c r="A96" t="s">
         <v>256</v>
       </c>
@@ -3393,8 +3695,11 @@
       <c r="F96" s="9">
         <v>300</v>
       </c>
-    </row>
-    <row r="97" spans="1:6" ht="20">
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" ht="20">
       <c r="A97" t="s">
         <v>257</v>
       </c>
@@ -3413,8 +3718,11 @@
       <c r="F97" s="9">
         <v>300</v>
       </c>
-    </row>
-    <row r="98" spans="1:6" ht="20">
+      <c r="G97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" ht="20">
       <c r="A98" t="s">
         <v>258</v>
       </c>
@@ -3433,8 +3741,11 @@
       <c r="F98" s="9">
         <v>300</v>
       </c>
-    </row>
-    <row r="99" spans="1:6" ht="20">
+      <c r="G98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" ht="20">
       <c r="A99" t="s">
         <v>259</v>
       </c>
@@ -3453,8 +3764,11 @@
       <c r="F99" s="9">
         <v>300</v>
       </c>
-    </row>
-    <row r="100" spans="1:6" ht="20">
+      <c r="G99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" ht="20">
       <c r="A100" t="s">
         <v>260</v>
       </c>
@@ -3473,8 +3787,11 @@
       <c r="F100" s="9">
         <v>300</v>
       </c>
-    </row>
-    <row r="101" spans="1:6" ht="20">
+      <c r="G100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" ht="20">
       <c r="A101" t="s">
         <v>261</v>
       </c>
@@ -3493,8 +3810,11 @@
       <c r="F101" s="9">
         <v>250</v>
       </c>
-    </row>
-    <row r="102" spans="1:6" ht="20">
+      <c r="G101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" ht="20">
       <c r="A102" t="s">
         <v>262</v>
       </c>
@@ -3513,8 +3833,11 @@
       <c r="F102" s="9">
         <v>250</v>
       </c>
-    </row>
-    <row r="103" spans="1:6" ht="20">
+      <c r="G102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" ht="20">
       <c r="A103" t="s">
         <v>263</v>
       </c>
@@ -3533,8 +3856,11 @@
       <c r="F103" s="9">
         <v>250</v>
       </c>
-    </row>
-    <row r="104" spans="1:6" ht="20">
+      <c r="G103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" ht="20">
       <c r="A104" t="s">
         <v>264</v>
       </c>
@@ -3553,8 +3879,11 @@
       <c r="F104" s="9">
         <v>60</v>
       </c>
-    </row>
-    <row r="105" spans="1:6" ht="20">
+      <c r="G104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" ht="20">
       <c r="A105" t="s">
         <v>265</v>
       </c>
@@ -3573,8 +3902,11 @@
       <c r="F105" s="9">
         <v>45</v>
       </c>
-    </row>
-    <row r="106" spans="1:6" ht="20">
+      <c r="G105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" ht="20">
       <c r="A106" t="s">
         <v>266</v>
       </c>
@@ -3593,8 +3925,11 @@
       <c r="F106" s="9">
         <v>42</v>
       </c>
-    </row>
-    <row r="107" spans="1:6" ht="20">
+      <c r="G106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" ht="20">
       <c r="A107" t="s">
         <v>267</v>
       </c>
@@ -3613,8 +3948,11 @@
       <c r="F107" s="9">
         <v>45</v>
       </c>
-    </row>
-    <row r="108" spans="1:6" ht="20">
+      <c r="G107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" ht="20">
       <c r="A108" t="s">
         <v>268</v>
       </c>
@@ -3633,8 +3971,11 @@
       <c r="F108" s="9">
         <v>42</v>
       </c>
-    </row>
-    <row r="109" spans="1:6" ht="20">
+      <c r="G108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" ht="20">
       <c r="A109" t="s">
         <v>269</v>
       </c>
@@ -3653,8 +3994,11 @@
       <c r="F109" s="9">
         <v>173</v>
       </c>
-    </row>
-    <row r="110" spans="1:6" ht="20">
+      <c r="G109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" ht="20">
       <c r="A110" t="s">
         <v>270</v>
       </c>
@@ -3673,8 +4017,11 @@
       <c r="F110" s="9">
         <v>173</v>
       </c>
-    </row>
-    <row r="111" spans="1:6" ht="20">
+      <c r="G110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" ht="20">
       <c r="A111" t="s">
         <v>271</v>
       </c>
@@ -3693,8 +4040,11 @@
       <c r="F111" s="9">
         <v>20</v>
       </c>
-    </row>
-    <row r="112" spans="1:6" ht="20">
+      <c r="G111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" ht="20">
       <c r="A112" t="s">
         <v>272</v>
       </c>
@@ -3713,8 +4063,11 @@
       <c r="F112" s="9">
         <v>20</v>
       </c>
-    </row>
-    <row r="113" spans="1:6" ht="20">
+      <c r="G112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" ht="20">
       <c r="A113" t="s">
         <v>273</v>
       </c>
@@ -3733,8 +4086,11 @@
       <c r="F113" s="9">
         <v>29</v>
       </c>
-    </row>
-    <row r="114" spans="1:6" ht="20">
+      <c r="G113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" ht="20">
       <c r="A114" t="s">
         <v>274</v>
       </c>
@@ -3753,8 +4109,11 @@
       <c r="F114" s="9">
         <v>29</v>
       </c>
-    </row>
-    <row r="115" spans="1:6" ht="20">
+      <c r="G114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" ht="20">
       <c r="A115" t="s">
         <v>275</v>
       </c>
@@ -3773,8 +4132,11 @@
       <c r="F115" s="9">
         <v>15</v>
       </c>
-    </row>
-    <row r="116" spans="1:6" ht="20">
+      <c r="G115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" ht="20">
       <c r="A116" t="s">
         <v>276</v>
       </c>
@@ -3793,8 +4155,11 @@
       <c r="F116" s="9">
         <v>15</v>
       </c>
-    </row>
-    <row r="117" spans="1:6" ht="20">
+      <c r="G116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" ht="20">
       <c r="A117" t="s">
         <v>277</v>
       </c>
@@ -3813,8 +4178,11 @@
       <c r="F117" s="9">
         <v>53</v>
       </c>
-    </row>
-    <row r="118" spans="1:6" ht="20">
+      <c r="G117">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" ht="20">
       <c r="A118" t="s">
         <v>278</v>
       </c>
@@ -3833,8 +4201,11 @@
       <c r="F118" s="9">
         <v>86</v>
       </c>
-    </row>
-    <row r="119" spans="1:6" ht="20">
+      <c r="G118">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" ht="20">
       <c r="A119" t="s">
         <v>279</v>
       </c>
@@ -3853,8 +4224,11 @@
       <c r="F119" s="9">
         <v>50</v>
       </c>
-    </row>
-    <row r="120" spans="1:6" ht="20">
+      <c r="G119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" ht="20">
       <c r="A120" t="s">
         <v>280</v>
       </c>
@@ -3873,8 +4247,11 @@
       <c r="F120" s="9">
         <v>59</v>
       </c>
-    </row>
-    <row r="121" spans="1:6" ht="20">
+      <c r="G120">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" ht="20">
       <c r="A121" t="s">
         <v>281</v>
       </c>
@@ -3893,8 +4270,11 @@
       <c r="F121" s="9">
         <v>100</v>
       </c>
-    </row>
-    <row r="122" spans="1:6" ht="20">
+      <c r="G121">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" ht="20">
       <c r="A122" t="s">
         <v>282</v>
       </c>
@@ -3913,8 +4293,11 @@
       <c r="F122" s="9">
         <v>98</v>
       </c>
-    </row>
-    <row r="123" spans="1:6" ht="20">
+      <c r="G122">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" ht="20">
       <c r="A123" t="s">
         <v>283</v>
       </c>
@@ -3933,8 +4316,11 @@
       <c r="F123" s="9">
         <v>131</v>
       </c>
-    </row>
-    <row r="124" spans="1:6" ht="20">
+      <c r="G123">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" ht="20">
       <c r="A124" t="s">
         <v>284</v>
       </c>
@@ -3953,8 +4339,11 @@
       <c r="F124" s="9">
         <v>150</v>
       </c>
-    </row>
-    <row r="125" spans="1:6" ht="20">
+      <c r="G124">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" ht="20">
       <c r="A125" t="s">
         <v>285</v>
       </c>
@@ -3973,8 +4362,11 @@
       <c r="F125" s="9">
         <v>85</v>
       </c>
-    </row>
-    <row r="126" spans="1:6" ht="19">
+      <c r="G125">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" ht="19">
       <c r="A126" t="s">
         <v>286</v>
       </c>
@@ -3993,8 +4385,11 @@
       <c r="F126" s="9">
         <v>106</v>
       </c>
-    </row>
-    <row r="127" spans="1:6" ht="19">
+      <c r="G126">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" ht="19">
       <c r="A127" t="s">
         <v>287</v>
       </c>
@@ -4013,8 +4408,11 @@
       <c r="F127" s="9">
         <v>130</v>
       </c>
-    </row>
-    <row r="128" spans="1:6" ht="20">
+      <c r="G127">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" ht="20">
       <c r="A128" t="s">
         <v>288</v>
       </c>
@@ -4033,8 +4431,11 @@
       <c r="F128" s="9">
         <v>50</v>
       </c>
-    </row>
-    <row r="129" spans="1:6" ht="20">
+      <c r="G128">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" ht="20">
       <c r="A129" t="s">
         <v>289</v>
       </c>
@@ -4053,8 +4454,11 @@
       <c r="F129" s="9">
         <v>298</v>
       </c>
-    </row>
-    <row r="130" spans="1:6" ht="20">
+      <c r="G129">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" ht="20">
       <c r="A130" t="s">
         <v>290</v>
       </c>
@@ -4073,8 +4477,11 @@
       <c r="F130" s="9">
         <v>60</v>
       </c>
-    </row>
-    <row r="131" spans="1:6" ht="20">
+      <c r="G130">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" ht="20">
       <c r="A131" t="s">
         <v>291</v>
       </c>
@@ -4093,8 +4500,11 @@
       <c r="F131" s="9">
         <v>12</v>
       </c>
-    </row>
-    <row r="132" spans="1:6" ht="20">
+      <c r="G131">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" ht="20">
       <c r="A132" t="s">
         <v>292</v>
       </c>
@@ -4113,8 +4523,11 @@
       <c r="F132" s="9">
         <v>30</v>
       </c>
-    </row>
-    <row r="133" spans="1:6" ht="20">
+      <c r="G132">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" ht="20">
       <c r="A133" t="s">
         <v>293</v>
       </c>
@@ -4133,8 +4546,11 @@
       <c r="F133" s="9">
         <v>30</v>
       </c>
-    </row>
-    <row r="134" spans="1:6" ht="20">
+      <c r="G133">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" ht="20">
       <c r="A134" t="s">
         <v>294</v>
       </c>
@@ -4153,8 +4569,11 @@
       <c r="F134" s="9">
         <v>40</v>
       </c>
-    </row>
-    <row r="135" spans="1:6" ht="20">
+      <c r="G134">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" ht="20">
       <c r="A135" t="s">
         <v>295</v>
       </c>
@@ -4173,8 +4592,11 @@
       <c r="F135" s="9">
         <v>19</v>
       </c>
-    </row>
-    <row r="136" spans="1:6" ht="20">
+      <c r="G135">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" ht="20">
       <c r="A136" t="s">
         <v>296</v>
       </c>
@@ -4193,8 +4615,11 @@
       <c r="F136" s="9">
         <v>22</v>
       </c>
-    </row>
-    <row r="137" spans="1:6" ht="20">
+      <c r="G136">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" ht="20">
       <c r="A137" t="s">
         <v>297</v>
       </c>
@@ -4213,8 +4638,11 @@
       <c r="F137" s="9">
         <v>200</v>
       </c>
-    </row>
-    <row r="138" spans="1:6" ht="20">
+      <c r="G137">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" ht="20">
       <c r="A138" t="s">
         <v>298</v>
       </c>
@@ -4233,8 +4661,11 @@
       <c r="F138" s="9">
         <v>200</v>
       </c>
-    </row>
-    <row r="139" spans="1:6" ht="20">
+      <c r="G138">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" ht="20">
       <c r="A139" t="s">
         <v>299</v>
       </c>
@@ -4253,8 +4684,11 @@
       <c r="F139" s="9">
         <v>200</v>
       </c>
-    </row>
-    <row r="140" spans="1:6" ht="20">
+      <c r="G139">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" ht="20">
       <c r="A140" t="s">
         <v>300</v>
       </c>
@@ -4273,8 +4707,11 @@
       <c r="F140" s="9">
         <v>200</v>
       </c>
-    </row>
-    <row r="141" spans="1:6" ht="20">
+      <c r="G140">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" ht="20">
       <c r="A141" t="s">
         <v>301</v>
       </c>
@@ -4293,8 +4730,11 @@
       <c r="F141" s="9">
         <v>300</v>
       </c>
-    </row>
-    <row r="142" spans="1:6" ht="20">
+      <c r="G141">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" ht="20">
       <c r="A142" t="s">
         <v>302</v>
       </c>
@@ -4313,8 +4753,11 @@
       <c r="F142" s="9">
         <v>300</v>
       </c>
-    </row>
-    <row r="143" spans="1:6" ht="20">
+      <c r="G142">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" ht="20">
       <c r="A143" t="s">
         <v>303</v>
       </c>
@@ -4333,8 +4776,11 @@
       <c r="F143" s="9">
         <v>300</v>
       </c>
-    </row>
-    <row r="144" spans="1:6" ht="20">
+      <c r="G143">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" ht="20">
       <c r="A144" t="s">
         <v>304</v>
       </c>
@@ -4353,8 +4799,11 @@
       <c r="F144" s="9">
         <v>300</v>
       </c>
-    </row>
-    <row r="145" spans="1:6" ht="20">
+      <c r="G144">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" ht="20">
       <c r="A145" t="s">
         <v>305</v>
       </c>
@@ -4373,8 +4822,11 @@
       <c r="F145" s="9">
         <v>327</v>
       </c>
-    </row>
-    <row r="146" spans="1:6" ht="20">
+      <c r="G145">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" ht="20">
       <c r="A146" t="s">
         <v>306</v>
       </c>
@@ -4393,8 +4845,11 @@
       <c r="F146" s="9">
         <v>320</v>
       </c>
-    </row>
-    <row r="147" spans="1:6" ht="20">
+      <c r="G146">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" ht="20">
       <c r="A147" t="s">
         <v>307</v>
       </c>
@@ -4413,8 +4868,11 @@
       <c r="F147" s="9">
         <v>300</v>
       </c>
-    </row>
-    <row r="148" spans="1:6" ht="20">
+      <c r="G147">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" ht="20">
       <c r="A148" t="s">
         <v>308</v>
       </c>
@@ -4432,6 +4890,9 @@
       </c>
       <c r="F148" s="16">
         <v>1</v>
+      </c>
+      <c r="G148">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
